--- a/moving_average/data/ALOKINDS.xlsx
+++ b/moving_average/data/ALOKINDS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="9">
   <si>
     <t>index</t>
   </si>
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I254"/>
+  <dimension ref="A1:I255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7771,6 +7771,35 @@
         <v>23.54772727272728</v>
       </c>
     </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>253</v>
+      </c>
+      <c r="C255" s="2">
+        <v>44571</v>
+      </c>
+      <c r="D255" t="s">
+        <v>8</v>
+      </c>
+      <c r="E255">
+        <v>26.85</v>
+      </c>
+      <c r="F255">
+        <v>30.7</v>
+      </c>
+      <c r="G255">
+        <v>26.45</v>
+      </c>
+      <c r="H255">
+        <v>29.8</v>
+      </c>
+      <c r="I255">
+        <v>23.70681818181819</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
